--- a/Data Cleansing/Strange Form.xlsx
+++ b/Data Cleansing/Strange Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomer/Documents/לימודים/Data Master/GitHub/tomer-git/Data Cleansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9600E-7E77-8D49-B001-F3BC60A13A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDD006-BEEB-E943-95DB-2FBD0F310DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dirty 8" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="248" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
